--- a/Methane/sample-lists_Ecuador2022.xlsx
+++ b/Methane/sample-lists_Ecuador2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3C480-1DD5-BE49-A034-AE397546F266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99134D76-9A6A-B344-A140-3A8AB759BAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="35840" windowHeight="20420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="standard batch" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="325">
   <si>
     <t>c1</t>
   </si>
@@ -1009,13 +1009,72 @@
   </si>
   <si>
     <t>is mid point btween 2 curves</t>
+  </si>
+  <si>
+    <t>* note for low curve n2o I used the standards from batch 2-5, they were better</t>
+  </si>
+  <si>
+    <r>
+      <t>y = 3E-09x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 7E-05x - 0.024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y = 7E-10x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 0.0001x - 0.1189</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,8 +1097,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1049,6 +1138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1074,6 +1169,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2643,10 +2746,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22859120734908137"/>
+                  <c:y val="-1.882363662875474E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3089,10 +3199,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22091513560804898"/>
+                  <c:y val="-3.2801108194808984E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4452,6 +4569,847 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14574453193350831"/>
+                  <c:y val="2.2521872265966754E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'standards data'!$F$103:$F$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4149</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1347</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3528</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9521</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'standards data'!$G$103:$G$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C42-BC41-A267-45412E82D13A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1662753104"/>
+        <c:axId val="166178063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1662753104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166178063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="166178063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1662753104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.32781977252843397"/>
+                  <c:y val="1.2839749198016915E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'standards data'!$D$103:$D$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38850</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4149</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10261</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37234</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1347</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3528</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9521</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>115680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'standards data'!$E$103:$E$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AAA-3845-A733-C0AEE9943AF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2130095216"/>
+        <c:axId val="2126583600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2130095216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2126583600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2126583600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130095216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4693,6 +5651,86 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8344,6 +9382,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8456,16 +10526,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8492,16 +10562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8593,6 +10663,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FBD5F6-C9BE-C64B-1C03-16A3964AEDA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4236B8-5FCC-0F21-E005-E8823BED7BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9105,8 +11247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9190,15 +11332,15 @@
         <v>0.3</v>
       </c>
       <c r="H3">
-        <f xml:space="preserve"> 0.0013*E3 - 0.2468</f>
+        <f t="shared" ref="H3:H11" si="0" xml:space="preserve"> 0.0013*E3 - 0.2468</f>
         <v>0.27969999999999995</v>
       </c>
       <c r="I3">
-        <f xml:space="preserve"> 0.0012*E3 + 0.5191</f>
+        <f t="shared" ref="I3:I17" si="1" xml:space="preserve"> 0.0012*E3 + 0.5191</f>
         <v>1.0050999999999999</v>
       </c>
       <c r="J3">
-        <f>(H3-G3)/H3</f>
+        <f t="shared" ref="J3:J11" si="2">(H3-G3)/H3</f>
         <v>-7.2577761887737013E-2</v>
       </c>
       <c r="K3">
@@ -9210,7 +11352,7 @@
         <v>0.26299999999999996</v>
       </c>
       <c r="O3">
-        <f>(M3-G3)/M3</f>
+        <f t="shared" ref="O3:O11" si="3">(M3-G3)/M3</f>
         <v>-0.14068441064638798</v>
       </c>
       <c r="P3">
@@ -9238,31 +11380,31 @@
         <v>0.3</v>
       </c>
       <c r="H4">
-        <f xml:space="preserve"> 0.0013*E4 - 0.2468</f>
+        <f t="shared" si="0"/>
         <v>0.24460000000000001</v>
       </c>
       <c r="I4">
-        <f xml:space="preserve"> 0.0012*E4 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>0.9726999999999999</v>
       </c>
       <c r="J4">
-        <f>(H4-G4)/H4</f>
+        <f t="shared" si="2"/>
         <v>-0.22649223221586254</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K35" si="0">J4*100</f>
+        <f t="shared" ref="K4:K35" si="4">J4*100</f>
         <v>-22.649223221586254</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" ref="M4:M34" si="1" xml:space="preserve"> 0.0013*D4 - 0.2635</f>
+        <f t="shared" ref="M4:M34" si="5" xml:space="preserve"> 0.0013*D4 - 0.2635</f>
         <v>0.22789999999999999</v>
       </c>
       <c r="O4">
-        <f>(M4-G4)/M4</f>
+        <f t="shared" si="3"/>
         <v>-0.31636682755594558</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P35" si="2">O4*100</f>
+        <f t="shared" ref="P4:P35" si="6">O4*100</f>
         <v>-31.63668275559456</v>
       </c>
     </row>
@@ -9286,31 +11428,31 @@
         <v>0.3</v>
       </c>
       <c r="H5">
-        <f xml:space="preserve"> 0.0013*E5 - 0.2468</f>
+        <f t="shared" si="0"/>
         <v>0.25369999999999993</v>
       </c>
       <c r="I5">
-        <f xml:space="preserve"> 0.0012*E5 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>0.98109999999999997</v>
       </c>
       <c r="J5">
-        <f>(H5-G5)/H5</f>
+        <f t="shared" si="2"/>
         <v>-0.18249901458415482</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-18.249901458415483</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.23699999999999993</v>
       </c>
       <c r="O5">
-        <f>(M5-G5)/M5</f>
+        <f t="shared" si="3"/>
         <v>-0.26582278481012689</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-26.58227848101269</v>
       </c>
     </row>
@@ -9334,35 +11476,35 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <f xml:space="preserve"> 0.0013*E6 - 0.2468</f>
+        <f t="shared" si="0"/>
         <v>1.0519000000000001</v>
       </c>
       <c r="I6">
-        <f xml:space="preserve"> 0.0012*E6 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>1.7178999999999998</v>
       </c>
       <c r="J6">
-        <f>(H6-G6)/H6</f>
+        <f t="shared" si="2"/>
         <v>4.9339290807110997E-2</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.9339290807111</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0351999999999999</v>
       </c>
       <c r="N6" s="5">
-        <f xml:space="preserve"> 0.0012*E6 + 0.9405</f>
+        <f t="shared" ref="N6:N35" si="7" xml:space="preserve"> 0.0012*E6 + 0.9405</f>
         <v>2.1393</v>
       </c>
       <c r="O6">
-        <f>(M6-G6)/M6</f>
+        <f t="shared" si="3"/>
         <v>3.4003091190108095E-2</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.4003091190108097</v>
       </c>
     </row>
@@ -9386,35 +11528,35 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f xml:space="preserve"> 0.0013*E7 - 0.2468</f>
+        <f t="shared" si="0"/>
         <v>1.0194000000000001</v>
       </c>
       <c r="I7">
-        <f xml:space="preserve"> 0.0012*E7 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>1.6879</v>
       </c>
       <c r="J7">
-        <f>(H7-G7)/H7</f>
+        <f t="shared" si="2"/>
         <v>1.9030802432803692E-2</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.9030802432803691</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0026999999999999</v>
       </c>
       <c r="N7" s="5">
-        <f xml:space="preserve"> 0.0012*E7 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>2.1092999999999997</v>
       </c>
       <c r="O7">
-        <f>(M7-G7)/M7</f>
+        <f t="shared" si="3"/>
         <v>2.6927296299989276E-3</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26927296299989278</v>
       </c>
     </row>
@@ -9438,35 +11580,35 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <f xml:space="preserve"> 0.0013*E8 - 0.2468</f>
+        <f t="shared" si="0"/>
         <v>1.0142</v>
       </c>
       <c r="I8">
-        <f xml:space="preserve"> 0.0012*E8 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>1.6831</v>
       </c>
       <c r="J8">
-        <f>(H8-G8)/H8</f>
+        <f t="shared" si="2"/>
         <v>1.4001183198580153E-2</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4001183198580152</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.99749999999999983</v>
       </c>
       <c r="N8" s="5">
-        <f xml:space="preserve"> 0.0012*E8 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>2.1044999999999998</v>
       </c>
       <c r="O8">
-        <f>(M8-G8)/M8</f>
+        <f t="shared" si="3"/>
         <v>-2.5062656641605704E-3</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.25062656641605702</v>
       </c>
     </row>
@@ -9490,35 +11632,35 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <f xml:space="preserve"> 0.0013*E9 - 0.2468</f>
+        <f t="shared" si="0"/>
         <v>4.8829999999999991</v>
       </c>
       <c r="I9">
-        <f xml:space="preserve"> 0.0012*E9 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>5.2542999999999997</v>
       </c>
       <c r="J9">
-        <f>(H9-G9)/H9</f>
+        <f t="shared" si="2"/>
         <v>-2.3960679909891643E-2</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.3960679909891645</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.8662999999999998</v>
       </c>
       <c r="N9" s="5">
-        <f xml:space="preserve"> 0.0012*E9 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>5.6757</v>
       </c>
       <c r="O9">
-        <f>(M9-G9)/M9</f>
+        <f t="shared" si="3"/>
         <v>-2.747467274931676E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-2.747467274931676</v>
       </c>
     </row>
@@ -9542,35 +11684,35 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <f xml:space="preserve"> 0.0013*E10 - 0.2468</f>
+        <f t="shared" si="0"/>
         <v>5.1949999999999994</v>
       </c>
       <c r="I10">
-        <f xml:space="preserve"> 0.0012*E10 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>5.5422999999999991</v>
       </c>
       <c r="J10">
-        <f>(H10-G10)/H10</f>
+        <f t="shared" si="2"/>
         <v>3.753609239653502E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.7536092396535019</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.1783000000000001</v>
       </c>
       <c r="N10" s="5">
-        <f xml:space="preserve"> 0.0012*E10 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>5.9636999999999993</v>
       </c>
       <c r="O10">
-        <f>(M10-G10)/M10</f>
+        <f t="shared" si="3"/>
         <v>3.4432149547148704E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.4432149547148705</v>
       </c>
     </row>
@@ -9594,35 +11736,35 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <f xml:space="preserve"> 0.0013*E11 - 0.2468</f>
+        <f t="shared" si="0"/>
         <v>4.4877999999999991</v>
       </c>
       <c r="I11">
-        <f xml:space="preserve"> 0.0012*E11 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>4.8894999999999991</v>
       </c>
       <c r="J11">
-        <f>(H11-G11)/H11</f>
+        <f t="shared" si="2"/>
         <v>-0.11413164579526738</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-11.413164579526738</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.4710999999999999</v>
       </c>
       <c r="N11" s="5">
-        <f xml:space="preserve"> 0.0012*E11 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>5.3108999999999993</v>
       </c>
       <c r="O11">
-        <f>(M11-G11)/M11</f>
+        <f t="shared" si="3"/>
         <v>-0.11829303750754852</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-11.829303750754852</v>
       </c>
     </row>
@@ -9640,31 +11782,31 @@
         <v>30</v>
       </c>
       <c r="I12">
-        <f xml:space="preserve"> 0.0012*E12 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>30.022299999999998</v>
       </c>
       <c r="J12">
-        <f>(I12-G12)/I12</f>
+        <f t="shared" ref="J12:J17" si="8">(I12-G12)/I12</f>
         <v>7.4278119930843963E-4</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.4278119930843961E-2</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N12" s="5">
-        <f xml:space="preserve"> 0.0012*E12 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>30.443699999999996</v>
       </c>
       <c r="O12">
-        <f>(N12-G12)/N12</f>
+        <f t="shared" ref="O12:O17" si="9">(N12-G12)/N12</f>
         <v>1.457444397362989E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.4574443973629889</v>
       </c>
     </row>
@@ -9682,31 +11824,31 @@
         <v>30</v>
       </c>
       <c r="I13">
-        <f xml:space="preserve"> 0.0012*E13 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>27.430299999999999</v>
       </c>
       <c r="J13">
-        <f>(I13-G13)/I13</f>
+        <f t="shared" si="8"/>
         <v>-9.3681075307233283E-2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-9.3681075307233286</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N13" s="5">
-        <f xml:space="preserve"> 0.0012*E13 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>27.851699999999997</v>
       </c>
       <c r="O13">
-        <f>(N13-G13)/N13</f>
+        <f t="shared" si="9"/>
         <v>-7.7133532243992387E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-7.7133532243992384</v>
       </c>
     </row>
@@ -9724,31 +11866,31 @@
         <v>30</v>
       </c>
       <c r="I14">
-        <f xml:space="preserve"> 0.0012*E14 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>27.467499999999998</v>
       </c>
       <c r="J14">
-        <f>(I14-G14)/I14</f>
+        <f t="shared" si="8"/>
         <v>-9.2199872576681635E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-9.2199872576681638</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N14" s="5">
-        <f xml:space="preserve"> 0.0012*E14 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>27.888899999999996</v>
       </c>
       <c r="O14">
-        <f>(N14-G14)/N14</f>
+        <f t="shared" si="9"/>
         <v>-7.5696782590923425E-2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-7.5696782590923428</v>
       </c>
     </row>
@@ -9766,31 +11908,31 @@
         <v>200</v>
       </c>
       <c r="I15">
-        <f xml:space="preserve"> 0.0012*E15 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>192.5215</v>
       </c>
       <c r="J15">
-        <f>(I15-G15)/I15</f>
+        <f t="shared" si="8"/>
         <v>-3.8845012115529938E-2</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-3.884501211552994</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N15" s="5">
-        <f xml:space="preserve"> 0.0012*E15 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>192.94289999999998</v>
       </c>
       <c r="O15">
-        <f>(N15-G15)/N15</f>
+        <f t="shared" si="9"/>
         <v>-3.6576106195149033E-2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-3.6576106195149034</v>
       </c>
     </row>
@@ -9808,31 +11950,31 @@
         <v>200</v>
       </c>
       <c r="I16">
-        <f xml:space="preserve"> 0.0012*E16 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>205.69149999999999</v>
       </c>
       <c r="J16">
-        <f>(I16-G16)/I16</f>
+        <f t="shared" si="8"/>
         <v>2.7670078734415331E-2</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.7670078734415333</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N16" s="5">
-        <f xml:space="preserve"> 0.0012*E16 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>206.11289999999997</v>
       </c>
       <c r="O16">
-        <f>(N16-G16)/N16</f>
+        <f t="shared" si="9"/>
         <v>2.9658017523405709E-2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.9658017523405711</v>
       </c>
     </row>
@@ -9850,31 +11992,31 @@
         <v>200</v>
       </c>
       <c r="I17">
-        <f xml:space="preserve"> 0.0012*E17 + 0.5191</f>
+        <f t="shared" si="1"/>
         <v>201.6379</v>
       </c>
       <c r="J17">
-        <f>(I17-G17)/I17</f>
+        <f t="shared" si="8"/>
         <v>8.1229768808344163E-3</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.8122976880834416</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N17" s="5">
-        <f xml:space="preserve"> 0.0012*E17 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>202.05929999999998</v>
       </c>
       <c r="O17">
-        <f>(N17-G17)/N17</f>
+        <f t="shared" si="9"/>
         <v>1.0191562575936763E-2</v>
       </c>
       <c r="P17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0191562575936763</v>
       </c>
     </row>
@@ -9906,15 +12048,15 @@
         <v>-6.7615658362989606E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-6.7615658362989608</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.26429999999999992</v>
       </c>
       <c r="N18" s="5">
-        <f xml:space="preserve"> 0.0012*E18 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>1.4277</v>
       </c>
       <c r="O18">
@@ -9922,7 +12064,7 @@
         <v>-0.13507377979568699</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-13.5073779795687</v>
       </c>
     </row>
@@ -9954,15 +12096,15 @@
         <v>-7.1122536418166377E-2</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-7.112253641816638</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.91689999999999983</v>
       </c>
       <c r="N19" s="5">
-        <f xml:space="preserve"> 0.0012*E19 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>2.0301</v>
       </c>
       <c r="O19">
@@ -9970,7 +12112,7 @@
         <v>-9.0631475624386726E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.0631475624386724</v>
       </c>
     </row>
@@ -10002,15 +12144,15 @@
         <v>-6.5666361175643242E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-6.5666361175643244</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.6752000000000002</v>
       </c>
       <c r="N20" s="5">
-        <f xml:space="preserve"> 0.0012*E20 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>5.4992999999999999</v>
       </c>
       <c r="O20">
@@ -10018,7 +12160,7 @@
         <v>-6.9472963723477013E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-6.9472963723477017</v>
       </c>
     </row>
@@ -10044,15 +12186,15 @@
         <v>-4.9556562352406082E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4.9556562352406086</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N21" s="5">
-        <f xml:space="preserve"> 0.0012*E21 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>29.004899999999999</v>
       </c>
       <c r="O21">
@@ -10060,7 +12202,7 @@
         <v>-3.4307996235118918E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-3.4307996235118918</v>
       </c>
     </row>
@@ -10086,15 +12228,15 @@
         <v>-7.6485563671045273E-3</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.76485563671045276</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N22" s="5">
-        <f xml:space="preserve"> 0.0012*E22 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>198.90329999999997</v>
       </c>
       <c r="O22">
@@ -10102,7 +12244,7 @@
         <v>-5.513734563478972E-3</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.55137345634789725</v>
       </c>
     </row>
@@ -10134,15 +12276,15 @@
         <v>6.6293183940242556E-2</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.6293183940242555</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.30459999999999993</v>
       </c>
       <c r="N23" s="5">
-        <f xml:space="preserve"> 0.0012*E23 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>1.4649000000000001</v>
       </c>
       <c r="O23">
@@ -10150,7 +12292,7 @@
         <v>1.5101772816808728E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.5101772816808727</v>
       </c>
     </row>
@@ -10182,15 +12324,15 @@
         <v>5.9796916133885006E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5.9796916133885007</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0468999999999999</v>
       </c>
       <c r="N24" s="5">
-        <f xml:space="preserve"> 0.0012*E24 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>2.1500999999999997</v>
       </c>
       <c r="O24">
@@ -10198,7 +12340,7 @@
         <v>4.4798930174801743E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.4798930174801743</v>
       </c>
     </row>
@@ -10230,15 +12372,15 @@
         <v>-1.8267722949718054E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.8267722949718055</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.8936000000000002</v>
       </c>
       <c r="N25" s="5">
-        <f xml:space="preserve"> 0.0012*E25 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>5.7008999999999999</v>
       </c>
       <c r="O25">
@@ -10246,7 +12388,7 @@
         <v>-2.1742684322380215E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-2.1742684322380215</v>
       </c>
     </row>
@@ -10272,15 +12414,15 @@
         <v>-9.0104395664291501E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-9.0104395664291506</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N26" s="5">
-        <f xml:space="preserve"> 0.0012*E26 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>27.941699999999997</v>
       </c>
       <c r="O26">
@@ -10288,7 +12430,7 @@
         <v>-7.3664093451722798E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-7.3664093451722801</v>
       </c>
     </row>
@@ -10314,15 +12456,15 @@
         <v>9.9014276569280579E-2</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.9014276569280586</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N27" s="5">
-        <f xml:space="preserve"> 0.0012*E27 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>222.40049999999997</v>
       </c>
       <c r="O27">
@@ -10330,7 +12472,7 @@
         <v>0.10072144621977006</v>
       </c>
       <c r="P27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.072144621977005</v>
       </c>
     </row>
@@ -10362,15 +12504,15 @@
         <v>2.6921829386960496E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.6921829386960496</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.29159999999999991</v>
       </c>
       <c r="N28" s="5">
-        <f xml:space="preserve"> 0.0012*E28 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>1.4529000000000001</v>
       </c>
       <c r="O28">
@@ -10378,7 +12520,7 @@
         <v>-2.8806584362140179E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-2.8806584362140177</v>
       </c>
     </row>
@@ -10410,15 +12552,15 @@
         <v>7.6411630445569513E-3</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.76411630445569512</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.99099999999999988</v>
       </c>
       <c r="N29" s="5">
-        <f xml:space="preserve"> 0.0012*E29 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>2.0985</v>
       </c>
       <c r="O29">
@@ -10426,7 +12568,7 @@
         <v>-9.0817356205853891E-3</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.90817356205853894</v>
       </c>
     </row>
@@ -10458,15 +12600,15 @@
         <v>-4.8811696348037753E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4.8811696348037756</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.7506000000000004</v>
       </c>
       <c r="N30" s="5">
-        <f xml:space="preserve"> 0.0012*E30 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>5.5688999999999993</v>
       </c>
       <c r="O30">
@@ -10474,7 +12616,7 @@
         <v>-5.2498631751778636E-2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-5.2498631751778637</v>
       </c>
     </row>
@@ -10500,15 +12642,15 @@
         <v>-7.8488821463365499E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-7.8488821463365497</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N31" s="5">
-        <f xml:space="preserve"> 0.0012*E31 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>28.238099999999999</v>
       </c>
       <c r="O31">
@@ -10516,7 +12658,7 @@
         <v>-6.2394424554059968E-2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-6.2394424554059968</v>
       </c>
     </row>
@@ -10542,15 +12684,15 @@
         <v>-3.3139499144302219E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-3.3139499144302218</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N32" s="5">
-        <f xml:space="preserve"> 0.0012*E32 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>194.00609999999998</v>
       </c>
       <c r="O32">
@@ -10558,7 +12700,7 @@
         <v>-3.0895420298640227E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-3.0895420298640226</v>
       </c>
     </row>
@@ -10590,15 +12732,15 @@
         <v>-8.3188908145580692E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-8.3188908145580687</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.90649999999999986</v>
       </c>
       <c r="N33" s="5">
-        <f xml:space="preserve"> 0.0012*E33 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>2.0204999999999997</v>
       </c>
       <c r="O33">
@@ -10606,7 +12748,7 @@
         <v>-0.1031439602868176</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-10.31439602868176</v>
       </c>
     </row>
@@ -10632,15 +12774,15 @@
         <v>-6.6389879249119307E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-6.6389879249119303</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.26350000000000001</v>
       </c>
       <c r="N34" s="5">
-        <f xml:space="preserve"> 0.0012*E34 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>28.553699999999999</v>
       </c>
       <c r="O34">
@@ -10648,7 +12790,7 @@
         <v>114.85199240986717</v>
       </c>
       <c r="P34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11485.199240986716</v>
       </c>
     </row>
@@ -10674,7 +12816,7 @@
         <v>8.500613274639518E-2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8.5006132746395178</v>
       </c>
       <c r="M35" s="5">
@@ -10682,7 +12824,7 @@
         <v>-0.26350000000000001</v>
       </c>
       <c r="N35" s="5">
-        <f xml:space="preserve"> 0.0012*E35 + 0.9405</f>
+        <f t="shared" si="7"/>
         <v>219.00209999999996</v>
       </c>
       <c r="O35">
@@ -10690,7 +12832,7 @@
         <v>8.6766747898764263E-2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.6766747898764258</v>
       </c>
     </row>
@@ -10827,19 +12969,19 @@
         <v>100</v>
       </c>
       <c r="G48">
-        <f t="shared" ref="G48:G79" si="3">0.0014*E48- 24.894</f>
+        <f t="shared" ref="G48:G77" si="10">0.0014*E48- 24.894</f>
         <v>105.36619999999999</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48:H79" si="4" xml:space="preserve"> 0.0015*E48 - 86.753</f>
+        <f t="shared" ref="H48:H79" si="11" xml:space="preserve"> 0.0015*E48 - 86.753</f>
         <v>52.811500000000009</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="I48:I55" si="5">(G48-F48)/G48</f>
+        <f t="shared" ref="I48:I55" si="12">(G48-F48)/G48</f>
         <v>5.0929045557303883E-2</v>
       </c>
       <c r="J48">
-        <f t="shared" ref="J48:J79" si="6">I48*100</f>
+        <f t="shared" ref="J48:J79" si="13">I48*100</f>
         <v>5.0929045557303887</v>
       </c>
     </row>
@@ -10860,19 +13002,19 @@
         <v>100</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>100.32759999999999</v>
       </c>
       <c r="H49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>47.412999999999997</v>
       </c>
       <c r="I49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3.265302867804968E-3</v>
       </c>
       <c r="J49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.32653028678049678</v>
       </c>
     </row>
@@ -10893,19 +13035,19 @@
         <v>500</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>523.69740000000002</v>
       </c>
       <c r="H50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>501.02350000000007</v>
       </c>
       <c r="I50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4.525017691514225E-2</v>
       </c>
       <c r="J50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.5250176915142246</v>
       </c>
     </row>
@@ -10926,19 +13068,19 @@
         <v>500</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>521.23479999999995</v>
       </c>
       <c r="H51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>498.38500000000005</v>
       </c>
       <c r="I51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4.0739413408314162E-2</v>
       </c>
       <c r="J51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.073941340831416</v>
       </c>
     </row>
@@ -10959,19 +13101,19 @@
         <v>500</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>516.97879999999998</v>
       </c>
       <c r="H52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>493.82499999999999</v>
       </c>
       <c r="I52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3.2842352529736191E-2</v>
       </c>
       <c r="J52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.2842352529736192</v>
       </c>
     </row>
@@ -10992,19 +13134,19 @@
         <v>1000</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1006.1024</v>
       </c>
       <c r="H53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1017.8860000000001</v>
       </c>
       <c r="I53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6.065386584904269E-3</v>
       </c>
       <c r="J53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.60653865849042687</v>
       </c>
     </row>
@@ -11025,19 +13167,19 @@
         <v>1000</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1080.588</v>
       </c>
       <c r="H54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1097.692</v>
       </c>
       <c r="I54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>7.4577914987025554E-2</v>
       </c>
       <c r="J54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.4577914987025551</v>
       </c>
     </row>
@@ -11058,19 +13200,19 @@
         <v>1000</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1008.2682</v>
       </c>
       <c r="H55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1020.2064999999999</v>
       </c>
       <c r="I55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8.2003974736086869E-3</v>
       </c>
       <c r="J55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.82003974736086871</v>
       </c>
     </row>
@@ -11091,19 +13233,19 @@
         <v>2000</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>2200.7504000000004</v>
       </c>
       <c r="H56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2297.866</v>
       </c>
       <c r="I56">
-        <f t="shared" ref="I56:I79" si="7">(H56-F56)/H56</f>
+        <f t="shared" ref="I56:I79" si="14">(H56-F56)/H56</f>
         <v>0.12962722804549962</v>
       </c>
       <c r="J56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>12.962722804549962</v>
       </c>
     </row>
@@ -11118,11 +13260,11 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>-24.893999999999998</v>
       </c>
       <c r="J57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -11143,19 +13285,19 @@
         <v>2000</v>
       </c>
       <c r="G58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1964.6474000000001</v>
       </c>
       <c r="H58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2044.8985</v>
       </c>
       <c r="I58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.1956346488591006E-2</v>
       </c>
       <c r="J58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.1956346488591008</v>
       </c>
     </row>
@@ -11176,19 +13318,19 @@
         <v>10000</v>
       </c>
       <c r="G59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>9287.1443999999992</v>
       </c>
       <c r="H59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>9890.4310000000005</v>
       </c>
       <c r="I59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1.1078283646081703E-2</v>
       </c>
       <c r="J59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-1.1078283646081704</v>
       </c>
     </row>
@@ -11209,19 +13351,19 @@
         <v>10000</v>
       </c>
       <c r="G60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>9847.1108000000004</v>
       </c>
       <c r="H60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>10490.395</v>
       </c>
       <c r="I60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.6747048133077965E-2</v>
       </c>
       <c r="J60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.6747048133077964</v>
       </c>
     </row>
@@ -11242,19 +13384,19 @@
         <v>10000</v>
       </c>
       <c r="G61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>9691.5946000000004</v>
       </c>
       <c r="H61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>10323.770499999999</v>
       </c>
       <c r="I61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.136165221805335E-2</v>
       </c>
       <c r="J61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.1361652218053351</v>
       </c>
     </row>
@@ -11279,11 +13421,11 @@
         <v>96.253600000000006</v>
       </c>
       <c r="I62">
-        <f t="shared" ref="I62:I64" si="8">(G62-F62)/G62</f>
+        <f t="shared" ref="I62:I64" si="15">(G62-F62)/G62</f>
         <v>-3.8922180572986298E-2</v>
       </c>
       <c r="J62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-3.8922180572986296</v>
       </c>
     </row>
@@ -11304,15 +13446,15 @@
         <v>500</v>
       </c>
       <c r="G63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>447.05719999999997</v>
       </c>
       <c r="I63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-0.11842511428067826</v>
       </c>
       <c r="J63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-11.842511428067827</v>
       </c>
     </row>
@@ -11333,15 +13475,15 @@
         <v>1000</v>
       </c>
       <c r="G64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>958.12580000000003</v>
       </c>
       <c r="I64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-4.3704281838564382E-2</v>
       </c>
       <c r="J64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-4.3704281838564381</v>
       </c>
     </row>
@@ -11362,15 +13504,15 @@
         <v>2000</v>
       </c>
       <c r="H65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2133.1569999999997</v>
       </c>
       <c r="I65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.2422503360043222E-2</v>
       </c>
       <c r="J65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.2422503360043224</v>
       </c>
     </row>
@@ -11391,15 +13533,15 @@
         <v>10000</v>
       </c>
       <c r="H66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>10084.065999999999</v>
       </c>
       <c r="I66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8.336518225882189E-3</v>
       </c>
       <c r="J66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.8336518225882189</v>
       </c>
     </row>
@@ -11420,15 +13562,15 @@
         <v>100</v>
       </c>
       <c r="G67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>111.97</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I69" si="9">(G67-F67)/G67</f>
+        <f t="shared" ref="I67:I69" si="16">(G67-F67)/G67</f>
         <v>0.10690363490220593</v>
       </c>
       <c r="J67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>10.690363490220593</v>
       </c>
     </row>
@@ -11449,15 +13591,15 @@
         <v>500</v>
       </c>
       <c r="G68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>496.85239999999999</v>
       </c>
       <c r="I68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-6.3350805993892985E-3</v>
       </c>
       <c r="J68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-0.63350805993892989</v>
       </c>
     </row>
@@ -11478,15 +13620,15 @@
         <v>1000</v>
       </c>
       <c r="G69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>985.99279999999999</v>
       </c>
       <c r="I69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-1.4206188929574346E-2</v>
       </c>
       <c r="J69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-1.4206188929574346</v>
       </c>
     </row>
@@ -11507,15 +13649,15 @@
         <v>2000</v>
       </c>
       <c r="H70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2017.8175000000003</v>
       </c>
       <c r="I70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8.8300849804307541E-3</v>
       </c>
       <c r="J70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.88300849804307546</v>
       </c>
     </row>
@@ -11536,15 +13678,15 @@
         <v>10000</v>
       </c>
       <c r="H71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11257.413999999999</v>
       </c>
       <c r="I71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.111696522842635</v>
       </c>
       <c r="J71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>11.169652284263499</v>
       </c>
     </row>
@@ -11565,15 +13707,15 @@
         <v>100</v>
       </c>
       <c r="G72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>106.33359999999999</v>
       </c>
       <c r="I72">
-        <f t="shared" ref="I72:I74" si="10">(G72-F72)/G72</f>
+        <f t="shared" ref="I72:I74" si="17">(G72-F72)/G72</f>
         <v>5.9563486988120314E-2</v>
       </c>
       <c r="J72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.9563486988120316</v>
       </c>
     </row>
@@ -11594,15 +13736,15 @@
         <v>500</v>
       </c>
       <c r="G73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>468.78659999999996</v>
       </c>
       <c r="I73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-6.6583387835744537E-2</v>
       </c>
       <c r="J73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-6.6583387835744539</v>
       </c>
     </row>
@@ -11623,15 +13765,15 @@
         <v>1000</v>
       </c>
       <c r="G74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>935.08879999999999</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-6.9417150542280051E-2</v>
       </c>
       <c r="J74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-6.9417150542280055</v>
       </c>
     </row>
@@ -11652,15 +13794,15 @@
         <v>2000</v>
       </c>
       <c r="H75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2038.7410000000002</v>
       </c>
       <c r="I75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.9002413744561086E-2</v>
       </c>
       <c r="J75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.9002413744561086</v>
       </c>
     </row>
@@ -11681,15 +13823,15 @@
         <v>10000</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>9803.1639999999989</v>
       </c>
       <c r="I76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-2.0078823530851997E-2</v>
       </c>
       <c r="J76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-2.0078823530851997</v>
       </c>
     </row>
@@ -11710,19 +13852,19 @@
         <v>500</v>
       </c>
       <c r="G77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>432.98439999999999</v>
       </c>
       <c r="H77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>403.83100000000002</v>
       </c>
       <c r="I77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-0.23814169788847309</v>
       </c>
       <c r="J77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>-23.814169788847309</v>
       </c>
     </row>
@@ -11743,15 +13885,15 @@
         <v>2000</v>
       </c>
       <c r="H78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2073.0264999999999</v>
       </c>
       <c r="I78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.5226997821783727E-2</v>
       </c>
       <c r="J78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.5226997821783725</v>
       </c>
     </row>
@@ -11772,24 +13914,35 @@
         <v>10000</v>
       </c>
       <c r="H79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>11018.075499999999</v>
       </c>
       <c r="I79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.2400483187830673E-2</v>
       </c>
       <c r="J79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>9.2400483187830673</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H86" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>26</v>
       </c>
@@ -11803,16 +13956,22 @@
         <v>299</v>
       </c>
       <c r="F87" t="s">
+        <v>53</v>
+      </c>
+      <c r="G87" t="s">
+        <v>299</v>
+      </c>
+      <c r="H87" t="s">
         <v>303</v>
       </c>
-      <c r="G87" t="s">
+      <c r="I87" t="s">
         <v>304</v>
       </c>
-      <c r="H87" t="s">
+      <c r="J87" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>29</v>
       </c>
@@ -11826,23 +13985,33 @@
         <v>0.1</v>
       </c>
       <c r="F88">
-        <f>0.0001*D88 - 0.0901</f>
-        <v>6.2800000000000009E-2</v>
+        <v>1529</v>
       </c>
       <c r="G88">
-        <f>0.0014*D88 - 24.894</f>
-        <v>-22.753399999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H88">
-        <f>(F88-E88)/F88</f>
-        <v>-0.59235668789808904</v>
+        <f xml:space="preserve"> 0.000000003*D88^2 + 0.00007*D88 - 0.024</f>
+        <v>9.0043522999999986E-2</v>
       </c>
       <c r="I88">
-        <f>H88*100</f>
-        <v>-59.235668789808905</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <f>0.0000000007*D88^2 + 0.0001*D88 - 0.1189</f>
+        <v>3.5636488699999996E-2</v>
+      </c>
+      <c r="J88">
+        <f>(H88-E88)/H88</f>
+        <v>-0.11057404984032022</v>
+      </c>
+      <c r="K88" s="7">
+        <f t="shared" ref="K88:K120" si="18">J88*100</f>
+        <v>-11.057404984032022</v>
+      </c>
+      <c r="L88">
+        <f xml:space="preserve"> 0.000000003*F88^2 + 0.00007*F88 - 0.024</f>
+        <v>9.0043522999999986E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>30</v>
       </c>
@@ -11856,23 +14025,33 @@
         <v>0.1</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F96" si="11">0.0001*D89 - 0.0901</f>
-        <v>6.5699999999999995E-2</v>
+        <v>1558</v>
       </c>
       <c r="G89">
-        <f t="shared" ref="G89:G102" si="12">0.0014*D89 - 24.894</f>
-        <v>-22.712799999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H89">
-        <f t="shared" ref="H89:H97" si="13">(F89-E89)/F89</f>
-        <v>-0.5220700152207004</v>
+        <f t="shared" ref="H89:H96" si="19" xml:space="preserve"> 0.000000003*D89^2 + 0.00007*D89 - 0.024</f>
+        <v>9.2342091999999987E-2</v>
       </c>
       <c r="I89">
-        <f t="shared" ref="I89:I120" si="14">H89*100</f>
-        <v>-52.207001522070037</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I89:I102" si="20">0.0000000007*D89^2 + 0.0001*D89 - 0.1189</f>
+        <v>3.859915479999998E-2</v>
+      </c>
+      <c r="J89">
+        <f>(H89-E89)/H89</f>
+        <v>-8.2929765117299048E-2</v>
+      </c>
+      <c r="K89" s="7">
+        <f t="shared" si="18"/>
+        <v>-8.2929765117299041</v>
+      </c>
+      <c r="L89">
+        <f t="shared" ref="L89:L90" si="21" xml:space="preserve"> 0.000000003*F89^2 + 0.00007*F89 - 0.024</f>
+        <v>9.2342091999999987E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>31</v>
       </c>
@@ -11886,23 +14065,33 @@
         <v>0.1</v>
       </c>
       <c r="F90">
-        <f t="shared" si="11"/>
-        <v>5.1799999999999999E-2</v>
+        <v>1419</v>
       </c>
       <c r="G90">
-        <f t="shared" si="12"/>
-        <v>-22.907399999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H90">
-        <f t="shared" si="13"/>
-        <v>-0.93050193050193064</v>
+        <f t="shared" si="19"/>
+        <v>8.1370682999999999E-2</v>
       </c>
       <c r="I90">
-        <f t="shared" si="14"/>
-        <v>-93.050193050193059</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>2.440949269999998E-2</v>
+      </c>
+      <c r="J90">
+        <f>(H90-E90)/H90</f>
+        <v>-0.22894384455394096</v>
+      </c>
+      <c r="K90" s="7">
+        <f t="shared" si="18"/>
+        <v>-22.894384455394096</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="21"/>
+        <v>8.1370682999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>32</v>
       </c>
@@ -11916,23 +14105,29 @@
         <v>0.3</v>
       </c>
       <c r="F91">
-        <f t="shared" si="11"/>
-        <v>0.315</v>
+        <v>4051</v>
       </c>
       <c r="G91">
-        <f t="shared" si="12"/>
-        <v>-19.2226</v>
+        <v>0.3</v>
       </c>
       <c r="H91">
-        <f t="shared" si="13"/>
-        <v>4.7619047619047658E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.30880180299999999</v>
       </c>
       <c r="I91">
-        <f t="shared" si="14"/>
-        <v>4.7619047619047654</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>0.29768742069999998</v>
+      </c>
+      <c r="J91">
+        <f>(H91-E91)/H91</f>
+        <v>2.850308163518073E-2</v>
+      </c>
+      <c r="K91" s="6">
+        <f t="shared" si="18"/>
+        <v>2.8503081635180729</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>33</v>
       </c>
@@ -11946,23 +14141,29 @@
         <v>0.3</v>
       </c>
       <c r="F92">
-        <f t="shared" si="11"/>
-        <v>0.30880000000000002</v>
+        <v>3989</v>
       </c>
       <c r="G92">
-        <f t="shared" si="12"/>
-        <v>-19.309399999999997</v>
+        <v>0.3</v>
       </c>
       <c r="H92">
-        <f t="shared" si="13"/>
-        <v>2.8497409326424965E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.30296636299999996</v>
       </c>
       <c r="I92">
-        <f t="shared" si="14"/>
-        <v>2.8497409326424963</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>0.29113848470000003</v>
+      </c>
+      <c r="J92">
+        <f>(H92-E92)/H92</f>
+        <v>9.791063835030334E-3</v>
+      </c>
+      <c r="K92" s="6">
+        <f t="shared" si="18"/>
+        <v>0.97910638350303336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>34</v>
       </c>
@@ -11976,23 +14177,29 @@
         <v>0.3</v>
       </c>
       <c r="F93">
-        <f t="shared" si="11"/>
-        <v>0.30370000000000003</v>
+        <v>3938</v>
       </c>
       <c r="G93">
-        <f t="shared" si="12"/>
-        <v>-19.380799999999997</v>
+        <v>0.3</v>
       </c>
       <c r="H93">
-        <f t="shared" si="13"/>
-        <v>1.2183075403358697E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.29818353199999992</v>
       </c>
       <c r="I93">
-        <f t="shared" si="14"/>
-        <v>1.2183075403358696</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>0.28575549080000001</v>
+      </c>
+      <c r="J93">
+        <f>(H93-E93)/H93</f>
+        <v>-6.0917784017665722E-3</v>
+      </c>
+      <c r="K93" s="6">
+        <f t="shared" si="18"/>
+        <v>-0.60917784017665721</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>35</v>
       </c>
@@ -12006,23 +14213,33 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <f t="shared" si="11"/>
-        <v>0.72920000000000007</v>
+        <v>8193</v>
       </c>
       <c r="G94">
-        <f t="shared" si="12"/>
-        <v>-13.423799999999998</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <f t="shared" si="13"/>
-        <v>-0.37136588041689511</v>
+        <f t="shared" si="19"/>
+        <v>0.75088574699999988</v>
       </c>
       <c r="I94">
-        <f t="shared" si="14"/>
-        <v>-37.136588041689514</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>0.74738767429999997</v>
+      </c>
+      <c r="J94">
+        <f>(H94-E94)/H94</f>
+        <v>-0.33176052947506562</v>
+      </c>
+      <c r="K94" s="7">
+        <f>J94*100</f>
+        <v>-33.176052947506562</v>
+      </c>
+      <c r="L94">
+        <f t="shared" ref="L94" si="22" xml:space="preserve"> 0.000000003*F94^2 + 0.00007*F94 - 0.024</f>
+        <v>0.75088574699999988</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>36</v>
       </c>
@@ -12036,23 +14253,29 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <f t="shared" si="11"/>
-        <v>0.96150000000000013</v>
+        <v>10516</v>
       </c>
       <c r="G95">
-        <f t="shared" si="12"/>
-        <v>-10.171599999999998</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <f t="shared" si="13"/>
-        <v>-4.0041601664066423E-2</v>
+        <f t="shared" si="19"/>
+        <v>1.0438787679999999</v>
       </c>
       <c r="I95">
-        <f t="shared" si="14"/>
-        <v>-4.004160166406642</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>1.0101103792000001</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ref="J95:J96" si="23">(H95-E95)/H95</f>
+        <v>4.2034352402883536E-2</v>
+      </c>
+      <c r="K95" s="6">
+        <f t="shared" si="18"/>
+        <v>4.2034352402883535</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>37</v>
       </c>
@@ -12066,23 +14289,29 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <f t="shared" si="11"/>
-        <v>0.90300000000000014</v>
+        <v>9931</v>
       </c>
       <c r="G96">
-        <f t="shared" si="12"/>
-        <v>-10.990599999999999</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <f t="shared" si="13"/>
-        <v>-0.1074197120708747</v>
+        <f xml:space="preserve"> 0.000000003*D96^2 + 0.00007*D96 - 0.024</f>
+        <v>0.96704428299999989</v>
       </c>
       <c r="I96">
-        <f t="shared" si="14"/>
-        <v>-10.74197120708747</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+        <f>0.0000000007*D96^2 + 0.0001*D96 - 0.1189</f>
+        <v>0.9432373327000001</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="23"/>
+        <v>-3.4078808570961905E-2</v>
+      </c>
+      <c r="K96" s="6">
+        <f t="shared" si="18"/>
+        <v>-3.4078808570961905</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>38</v>
       </c>
@@ -12095,20 +14324,26 @@
       <c r="E97">
         <v>5</v>
       </c>
+      <c r="F97">
+        <v>40534</v>
+      </c>
       <c r="G97">
-        <f t="shared" si="12"/>
-        <v>31.8536</v>
-      </c>
-      <c r="H97">
-        <f>(G97-E97)/G97</f>
-        <v>0.84303187080895092</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <f t="shared" si="14"/>
-        <v>84.303187080895086</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>5.0846036092000002</v>
+      </c>
+      <c r="J97">
+        <f>(I97-E97)/I97</f>
+        <v>1.6639174988374666E-2</v>
+      </c>
+      <c r="K97" s="6">
+        <f>J97*100</f>
+        <v>1.6639174988374665</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>39</v>
       </c>
@@ -12121,20 +14356,30 @@
       <c r="E98">
         <v>5</v>
       </c>
+      <c r="F98">
+        <v>29355</v>
+      </c>
       <c r="G98">
-        <f t="shared" si="12"/>
-        <v>16.203000000000003</v>
-      </c>
-      <c r="H98">
-        <f t="shared" ref="H98:H102" si="15">(G98-E98)/G98</f>
-        <v>0.69141517003024133</v>
+        <v>5</v>
       </c>
       <c r="I98">
-        <f t="shared" si="14"/>
-        <v>69.141517003024134</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>3.4198012175000003</v>
+      </c>
+      <c r="J98">
+        <f>(I98-E98)/I98</f>
+        <v>-0.4620732849657217</v>
+      </c>
+      <c r="K98" s="7">
+        <f t="shared" si="18"/>
+        <v>-46.207328496572167</v>
+      </c>
+      <c r="L98">
+        <f t="shared" ref="L98" si="24" xml:space="preserve"> 0.000000003*F98^2 + 0.00007*F98 - 0.024</f>
+        <v>4.6159980749999994</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>40</v>
       </c>
@@ -12147,20 +14392,26 @@
       <c r="E99">
         <v>5</v>
       </c>
+      <c r="F99">
+        <v>37544</v>
+      </c>
       <c r="G99">
-        <f t="shared" si="12"/>
-        <v>27.6676</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="15"/>
-        <v>0.81928320490393092</v>
+        <v>5</v>
       </c>
       <c r="I99">
-        <f t="shared" si="14"/>
-        <v>81.928320490393091</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>4.6221863552000002</v>
+      </c>
+      <c r="J99">
+        <f>(I99-E99)/I99</f>
+        <v>-8.1739163193832745E-2</v>
+      </c>
+      <c r="K99" s="6">
+        <f t="shared" si="18"/>
+        <v>-8.1739163193832738</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>41</v>
       </c>
@@ -12173,20 +14424,26 @@
       <c r="E100">
         <v>25</v>
       </c>
+      <c r="F100">
+        <v>118972</v>
+      </c>
       <c r="G100">
-        <f t="shared" si="12"/>
-        <v>141.66679999999999</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="15"/>
-        <v>0.82352957785451497</v>
+        <v>25</v>
       </c>
       <c r="I100">
-        <f t="shared" si="14"/>
-        <v>82.352957785451494</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>21.686335748800001</v>
+      </c>
+      <c r="J100">
+        <f>(I100-E100)/I100</f>
+        <v>-0.15279963796481191</v>
+      </c>
+      <c r="K100" s="6">
+        <f t="shared" si="18"/>
+        <v>-15.279963796481191</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>42</v>
       </c>
@@ -12199,20 +14456,26 @@
       <c r="E101">
         <v>25</v>
       </c>
+      <c r="F101">
+        <v>125064</v>
+      </c>
       <c r="G101">
-        <f t="shared" si="12"/>
-        <v>150.19559999999998</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="15"/>
-        <v>0.83355038363307576</v>
+        <v>25</v>
       </c>
       <c r="I101">
-        <f t="shared" si="14"/>
-        <v>83.355038363307571</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>23.336202867200001</v>
+      </c>
+      <c r="J101">
+        <f>(I101-E101)/I101</f>
+        <v>-7.1296823320752614E-2</v>
+      </c>
+      <c r="K101" s="6">
+        <f t="shared" si="18"/>
+        <v>-7.1296823320752614</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>43</v>
       </c>
@@ -12225,20 +14488,26 @@
       <c r="E102">
         <v>25</v>
       </c>
+      <c r="F102">
+        <v>122865</v>
+      </c>
       <c r="G102">
-        <f>0.0014*D102 - 24.894</f>
-        <v>147.11699999999999</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="15"/>
-        <v>0.83006722540562949</v>
+        <v>25</v>
       </c>
       <c r="I102">
-        <f t="shared" si="14"/>
-        <v>83.006722540562947</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>22.7346657575</v>
+      </c>
+      <c r="J102">
+        <f>(I102-E102)/I102</f>
+        <v>-9.9642293696474621E-2</v>
+      </c>
+      <c r="K102" s="6">
+        <f t="shared" si="18"/>
+        <v>-9.9642293696474624</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>305</v>
       </c>
@@ -12252,19 +14521,41 @@
         <v>0.1</v>
       </c>
       <c r="F103">
-        <f>0.0001*D103 - 0.0901</f>
-        <v>6.7199999999999996E-2</v>
+        <v>1573</v>
+      </c>
+      <c r="G103">
+        <v>0.1</v>
       </c>
       <c r="H103">
-        <f t="shared" ref="H103" si="16">(F103-E103)/F103</f>
-        <v>-0.48809523809523825</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="14"/>
-        <v>-48.809523809523824</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H103:H104" si="25" xml:space="preserve"> 0.000000003*D103^2 + 0.00007*D103 - 0.024</f>
+        <v>9.3532986999999984E-2</v>
+      </c>
+      <c r="J103">
+        <f>(H103-E103)/H103</f>
+        <v>-6.9141521161940681E-2</v>
+      </c>
+      <c r="K103" s="11">
+        <f t="shared" si="18"/>
+        <v>-6.9141521161940682</v>
+      </c>
+      <c r="L103">
+        <f t="shared" ref="L103" si="26" xml:space="preserve"> 0.000000003*F103^2 + 0.00007*F103 - 0.024</f>
+        <v>9.3532986999999984E-2</v>
+      </c>
+      <c r="M103" s="8">
+        <f xml:space="preserve"> 0.0000000006*D103^2 + 0.0001*D103- 0.2611</f>
+        <v>-0.10231540259999999</v>
+      </c>
+      <c r="N103">
+        <f>(H103-G103)/H103</f>
+        <v>-6.9141521161940681E-2</v>
+      </c>
+      <c r="O103">
+        <f>N103*100</f>
+        <v>-6.9141521161940682</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>305</v>
       </c>
@@ -12278,19 +14569,41 @@
         <v>0.3</v>
       </c>
       <c r="F104">
-        <f>0.0001*D104 - 0.0901</f>
-        <v>0.29730000000000001</v>
+        <v>3874</v>
+      </c>
+      <c r="G104">
+        <v>0.3</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H104:H105" si="17">(F104-E104)/F104</f>
-        <v>-9.0817356205852001E-3</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="14"/>
-        <v>-0.90817356205851996</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+        <f xml:space="preserve"> 0.000000003*D104^2 + 0.00007*D104 - 0.024</f>
+        <v>0.29220362799999994</v>
+      </c>
+      <c r="J104">
+        <f>(H104-E104)/H104</f>
+        <v>-2.6681297742134992E-2</v>
+      </c>
+      <c r="K104" s="6">
+        <f t="shared" si="18"/>
+        <v>-2.6681297742134991</v>
+      </c>
+      <c r="L104">
+        <f t="shared" ref="L104:L120" si="27" xml:space="preserve"> 0.000000003*F104^2 + 0.00007*F104 - 0.024</f>
+        <v>0.29220362799999994</v>
+      </c>
+      <c r="M104" s="8">
+        <f t="shared" ref="M104:M120" si="28" xml:space="preserve"> 0.0000000006*D104^2 + 0.0001*D104- 0.2611</f>
+        <v>0.13530472560000001</v>
+      </c>
+      <c r="N104">
+        <f>(H104-G104)/H104</f>
+        <v>-2.6681297742134992E-2</v>
+      </c>
+      <c r="O104">
+        <f t="shared" ref="O104:O120" si="29">N104*100</f>
+        <v>-2.6681297742134991</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>305</v>
       </c>
@@ -12304,19 +14617,41 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <f>0.0001*D105 - 0.0901</f>
-        <v>0.8983000000000001</v>
+        <v>9884</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
       </c>
       <c r="H105">
-        <f t="shared" si="17"/>
-        <v>-0.11321384838027373</v>
-      </c>
-      <c r="I105">
-        <f t="shared" si="14"/>
-        <v>-11.321384838027374</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+        <f xml:space="preserve"> 0.000000003*D105^2 + 0.00007*D105 - 0.024</f>
+        <v>0.96096036799999984</v>
+      </c>
+      <c r="J105">
+        <f>(H105-E105)/H105</f>
+        <v>-4.0625642118052641E-2</v>
+      </c>
+      <c r="K105" s="6">
+        <f>J105*100</f>
+        <v>-4.0625642118052641</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="27"/>
+        <v>0.96096036799999984</v>
+      </c>
+      <c r="M105" s="8">
+        <f t="shared" si="28"/>
+        <v>0.78591607360000004</v>
+      </c>
+      <c r="N105">
+        <f>(M105-E105)/M105</f>
+        <v>-0.27240049362950192</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="29"/>
+        <v>-27.240049362950192</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>305</v>
       </c>
@@ -12329,20 +14664,36 @@
       <c r="E106">
         <v>5</v>
       </c>
-      <c r="G106">
-        <f t="shared" ref="G106:G107" si="18">0.0014*D106 - 24.894</f>
-        <v>29.496000000000002</v>
-      </c>
-      <c r="H106">
-        <f t="shared" ref="H106:H120" si="19">(G106-E106)/G106</f>
-        <v>0.83048548955790613</v>
-      </c>
       <c r="I106">
-        <f t="shared" si="14"/>
-        <v>83.048548955790608</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I105:I107" si="30">0.0000000007*D106^2 + 0.0001*D106 - 0.1189</f>
+        <v>4.8226257500000003</v>
+      </c>
+      <c r="J106">
+        <f>(I106-E106)/I106</f>
+        <v>-3.6779600822228371E-2</v>
+      </c>
+      <c r="K106" s="6">
+        <f>J106*100</f>
+        <v>-3.6779600822228371</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="27"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M106" s="8">
+        <f t="shared" si="28"/>
+        <v>4.5294935000000001</v>
+      </c>
+      <c r="N106">
+        <f>(M106-E106)/M106</f>
+        <v>-0.10387618394860262</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="29"/>
+        <v>-10.387618394860262</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>305</v>
       </c>
@@ -12355,20 +14706,36 @@
       <c r="E107">
         <v>25</v>
       </c>
-      <c r="G107">
+      <c r="I107">
+        <f t="shared" si="30"/>
+        <v>21.908331166299998</v>
+      </c>
+      <c r="J107">
+        <f>(I107-E107)/I107</f>
+        <v>-0.14111840880220455</v>
+      </c>
+      <c r="K107" s="6">
         <f t="shared" si="18"/>
-        <v>142.83019999999999</v>
-      </c>
-      <c r="H107">
-        <f t="shared" si="19"/>
-        <v>0.82496698877408281</v>
-      </c>
-      <c r="I107">
-        <f t="shared" si="14"/>
-        <v>82.496698877408278</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+        <v>-14.111840880220456</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="27"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M107" s="8">
+        <f t="shared" si="28"/>
+        <v>20.330855285399998</v>
+      </c>
+      <c r="N107">
+        <f>(M107-E107)/M107</f>
+        <v>-0.22965805663635852</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="29"/>
+        <v>-22.965805663635852</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>306</v>
       </c>
@@ -12382,19 +14749,41 @@
         <v>0.1</v>
       </c>
       <c r="F108">
-        <f>0.0001*D108 - 0.0901</f>
-        <v>8.6400000000000018E-2</v>
+        <v>1765</v>
+      </c>
+      <c r="G108">
+        <v>0.1</v>
       </c>
       <c r="H108">
-        <f t="shared" ref="H108" si="20">(F108-E108)/F108</f>
-        <v>-0.15740740740740722</v>
-      </c>
-      <c r="I108">
-        <f t="shared" si="14"/>
-        <v>-15.740740740740723</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H108:H110" si="31" xml:space="preserve"> 0.000000003*D108^2 + 0.00007*D108 - 0.024</f>
+        <v>0.108895675</v>
+      </c>
+      <c r="J108">
+        <f>(H108-E108)/H108</f>
+        <v>8.1689883459558812E-2</v>
+      </c>
+      <c r="K108" s="6">
+        <f t="shared" si="18"/>
+        <v>8.1689883459558814</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="27"/>
+        <v>0.108895675</v>
+      </c>
+      <c r="M108" s="8">
+        <f t="shared" si="28"/>
+        <v>-8.2730864999999987E-2</v>
+      </c>
+      <c r="N108">
+        <f>(H108-G108)/H108</f>
+        <v>8.1689883459558812E-2</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="29"/>
+        <v>8.1689883459558814</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>306</v>
       </c>
@@ -12408,19 +14797,41 @@
         <v>0.3</v>
       </c>
       <c r="F109">
-        <f>0.0001*D109 - 0.0901</f>
-        <v>0.32480000000000003</v>
+        <v>4149</v>
+      </c>
+      <c r="G109">
+        <v>0.3</v>
       </c>
       <c r="H109">
-        <f t="shared" ref="H109:H110" si="21">(F109-E109)/F109</f>
-        <v>7.6354679802955794E-2</v>
-      </c>
-      <c r="I109">
-        <f t="shared" si="14"/>
-        <v>7.6354679802955792</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="31"/>
+        <v>0.31807260299999995</v>
+      </c>
+      <c r="J109">
+        <f>(H109-E109)/H109</f>
+        <v>5.6819112459050636E-2</v>
+      </c>
+      <c r="K109" s="6">
+        <f t="shared" si="18"/>
+        <v>5.6819112459050638</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="27"/>
+        <v>0.31807260299999995</v>
+      </c>
+      <c r="M109" s="8">
+        <f t="shared" si="28"/>
+        <v>0.16412852060000005</v>
+      </c>
+      <c r="N109">
+        <f>(H109-G109)/H109</f>
+        <v>5.6819112459050636E-2</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="29"/>
+        <v>5.6819112459050638</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>306</v>
       </c>
@@ -12434,19 +14845,41 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <f>0.0001*D110 - 0.0901</f>
-        <v>0.93600000000000005</v>
+        <v>10261</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
       </c>
       <c r="H110">
-        <f t="shared" si="21"/>
-        <v>-6.8376068376068314E-2</v>
-      </c>
-      <c r="I110">
-        <f t="shared" si="14"/>
-        <v>-6.8376068376068311</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="31"/>
+        <v>1.0101343629999999</v>
+      </c>
+      <c r="J110">
+        <f>(H110-E110)/H110</f>
+        <v>1.0032688096959558E-2</v>
+      </c>
+      <c r="K110" s="6">
+        <f t="shared" ref="K110" si="32">J110*100</f>
+        <v>1.0032688096959559</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="27"/>
+        <v>1.0101343629999999</v>
+      </c>
+      <c r="M110" s="8">
+        <f t="shared" si="28"/>
+        <v>0.82817287260000005</v>
+      </c>
+      <c r="N110">
+        <f>(H110-G110)/H110</f>
+        <v>1.0032688096959558E-2</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="29"/>
+        <v>1.0032688096959559</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>306</v>
       </c>
@@ -12459,20 +14892,36 @@
       <c r="E111">
         <v>5</v>
       </c>
-      <c r="G111">
-        <f t="shared" ref="G111:G112" si="22">0.0014*D111 - 24.894</f>
-        <v>27.233600000000003</v>
-      </c>
-      <c r="H111">
-        <f t="shared" si="19"/>
-        <v>0.81640326655308149</v>
-      </c>
       <c r="I111">
-        <f t="shared" si="14"/>
-        <v>81.640326655308144</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I111:I112" si="33">0.0000000007*D111^2 + 0.0001*D111 - 0.1189</f>
+        <v>4.5749595292</v>
+      </c>
+      <c r="J111">
+        <f>(I111-E111)/I111</f>
+        <v>-9.2905842792083596E-2</v>
+      </c>
+      <c r="K111" s="6">
+        <f t="shared" si="18"/>
+        <v>-9.2905842792083604</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="27"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M111" s="8">
+        <f t="shared" si="28"/>
+        <v>4.2941224536</v>
+      </c>
+      <c r="N111">
+        <f>(M111-E111)/M111</f>
+        <v>-0.16438225831408787</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="29"/>
+        <v>-16.438225831408786</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>306</v>
       </c>
@@ -12485,20 +14934,36 @@
       <c r="E112">
         <v>25</v>
       </c>
-      <c r="G112">
-        <f t="shared" si="22"/>
-        <v>157.3734</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="19"/>
-        <v>0.84114214981693225</v>
-      </c>
       <c r="I112">
-        <f t="shared" si="14"/>
-        <v>84.114214981693223</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="33"/>
+        <v>24.764987536700001</v>
+      </c>
+      <c r="J112">
+        <f>(I112-E112)/I112</f>
+        <v>-9.4897065040604744E-3</v>
+      </c>
+      <c r="K112" s="6">
+        <f t="shared" si="18"/>
+        <v>-0.94897065040604744</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="27"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M112" s="8">
+        <f t="shared" si="28"/>
+        <v>22.927817888600003</v>
+      </c>
+      <c r="N112">
+        <f>(M112-E112)/M112</f>
+        <v>-9.0378514059565665E-2</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="29"/>
+        <v>-9.037851405956566</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>307</v>
       </c>
@@ -12512,19 +14977,41 @@
         <v>0.1</v>
       </c>
       <c r="F113">
-        <f>0.0001*D113 - 0.0901</f>
-        <v>4.4600000000000015E-2</v>
+        <v>1347</v>
+      </c>
+      <c r="G113">
+        <v>0.1</v>
       </c>
       <c r="H113">
-        <f t="shared" ref="H113:H115" si="23">(F113-E113)/F113</f>
-        <v>-1.2421524663677124</v>
-      </c>
-      <c r="I113">
-        <f t="shared" si="14"/>
-        <v>-124.21524663677124</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H113:H114" si="34" xml:space="preserve"> 0.000000003*D113^2 + 0.00007*D113 - 0.024</f>
+        <v>7.5733226999999986E-2</v>
+      </c>
+      <c r="J113">
+        <f>(H113-E113)/H113</f>
+        <v>-0.32042438915220162</v>
+      </c>
+      <c r="K113" s="6">
+        <f t="shared" si="18"/>
+        <v>-32.04243891522016</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="27"/>
+        <v>7.5733226999999986E-2</v>
+      </c>
+      <c r="M113" s="8">
+        <f t="shared" si="28"/>
+        <v>-0.12531135459999998</v>
+      </c>
+      <c r="N113">
+        <f>(H113-G113)/H113</f>
+        <v>-0.32042438915220162</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="29"/>
+        <v>-32.04243891522016</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>307</v>
       </c>
@@ -12538,19 +15025,41 @@
         <v>0.3</v>
       </c>
       <c r="F114">
-        <f>0.0001*D114 - 0.0901</f>
-        <v>0.26269999999999999</v>
+        <v>3528</v>
+      </c>
+      <c r="G114">
+        <v>0.3</v>
       </c>
       <c r="H114">
-        <f t="shared" si="23"/>
-        <v>-0.14198705748001522</v>
-      </c>
-      <c r="I114">
-        <f t="shared" si="14"/>
-        <v>-14.198705748001522</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="34"/>
+        <v>0.26030035199999996</v>
+      </c>
+      <c r="J114">
+        <f>(H114-E114)/H114</f>
+        <v>-0.15251476878525327</v>
+      </c>
+      <c r="K114" s="6">
+        <f t="shared" si="18"/>
+        <v>-15.251476878525327</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="27"/>
+        <v>0.26030035199999996</v>
+      </c>
+      <c r="M114" s="8">
+        <f t="shared" si="28"/>
+        <v>9.916807040000003E-2</v>
+      </c>
+      <c r="N114">
+        <f>(H114-G114)/H114</f>
+        <v>-0.15251476878525327</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="29"/>
+        <v>-15.251476878525327</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>307</v>
       </c>
@@ -12564,19 +15073,41 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <f>0.0001*D115 - 0.0901</f>
-        <v>0.8620000000000001</v>
+        <v>9521</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
       </c>
       <c r="H115">
-        <f t="shared" si="23"/>
-        <v>-0.16009280742459384</v>
-      </c>
-      <c r="I115">
-        <f t="shared" si="14"/>
-        <v>-16.009280742459385</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+        <f xml:space="preserve"> 0.000000003*D115^2 + 0.00007*D115 - 0.024</f>
+        <v>0.91441832299999981</v>
+      </c>
+      <c r="J115">
+        <f>(H115-E115)/H115</f>
+        <v>-9.3591384651202147E-2</v>
+      </c>
+      <c r="K115" s="6">
+        <f t="shared" ref="K115" si="35">J115*100</f>
+        <v>-9.3591384651202141</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="27"/>
+        <v>0.91441832299999981</v>
+      </c>
+      <c r="M115" s="8">
+        <f t="shared" si="28"/>
+        <v>0.74538966460000011</v>
+      </c>
+      <c r="N115">
+        <f>(H115-G115)/H115</f>
+        <v>-9.3591384651202147E-2</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="29"/>
+        <v>-9.3591384651202141</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>307</v>
       </c>
@@ -12589,20 +15120,36 @@
       <c r="E116">
         <v>5</v>
       </c>
-      <c r="G116">
-        <f t="shared" ref="G116:G117" si="24">0.0014*D116 - 24.894</f>
-        <v>26.845800000000004</v>
-      </c>
-      <c r="H116">
-        <f t="shared" si="19"/>
-        <v>0.81375112680568285</v>
-      </c>
       <c r="I116">
-        <f t="shared" si="14"/>
-        <v>81.375112680568279</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I116:I117" si="36">0.0000000007*D116^2 + 0.0001*D116 - 0.1189</f>
+        <v>4.5328738942999998</v>
+      </c>
+      <c r="J116">
+        <f>(I116-E116)/I116</f>
+        <v>-0.10305296740935198</v>
+      </c>
+      <c r="K116" s="6">
+        <f t="shared" si="18"/>
+        <v>-10.305296740935198</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="27"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M116" s="8">
+        <f t="shared" si="28"/>
+        <v>4.2540919094000005</v>
+      </c>
+      <c r="N116">
+        <f>(M116-E116)/M116</f>
+        <v>-0.17533896927610171</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="29"/>
+        <v>-17.533896927610172</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>307</v>
       </c>
@@ -12615,20 +15162,36 @@
       <c r="E117">
         <v>25</v>
       </c>
-      <c r="G117">
-        <f t="shared" si="24"/>
-        <v>137.05799999999999</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="19"/>
-        <v>0.81759547053072423</v>
-      </c>
       <c r="I117">
-        <f t="shared" si="14"/>
-        <v>81.759547053072424</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="36"/>
+        <v>20.816403680000001</v>
+      </c>
+      <c r="J117">
+        <f>(I117-E117)/I117</f>
+        <v>-0.20097594110453951</v>
+      </c>
+      <c r="K117" s="6">
+        <f t="shared" si="18"/>
+        <v>-20.097594110453951</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="27"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M117" s="8">
+        <f t="shared" si="28"/>
+        <v>19.336017440000003</v>
+      </c>
+      <c r="N117">
+        <f>(M117-E117)/M117</f>
+        <v>-0.29292394763168961</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="29"/>
+        <v>-29.292394763168961</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>308</v>
       </c>
@@ -12642,19 +15205,41 @@
         <v>0.3</v>
       </c>
       <c r="F118">
-        <f>0.0001*D118 - 0.0901</f>
-        <v>0.28189999999999998</v>
+        <v>3720</v>
+      </c>
+      <c r="G118">
+        <v>0.3</v>
       </c>
       <c r="H118">
-        <f t="shared" ref="H118" si="25">(F118-E118)/F118</f>
-        <v>-6.4207165661582147E-2</v>
-      </c>
-      <c r="I118">
-        <f t="shared" si="14"/>
-        <v>-6.4207165661582151</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H118" si="37" xml:space="preserve"> 0.000000003*D118^2 + 0.00007*D118 - 0.024</f>
+        <v>0.27791519999999992</v>
+      </c>
+      <c r="J118">
+        <f>(H118-E118)/H118</f>
+        <v>-7.9465966597005402E-2</v>
+      </c>
+      <c r="K118" s="6">
+        <f t="shared" si="18"/>
+        <v>-7.94659665970054</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="27"/>
+        <v>0.27791519999999992</v>
+      </c>
+      <c r="M118" s="8">
+        <f t="shared" si="28"/>
+        <v>0.11920303999999998</v>
+      </c>
+      <c r="N118">
+        <f>(H118-G118)/H118</f>
+        <v>-7.9465966597005402E-2</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="29"/>
+        <v>-7.94659665970054</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>308</v>
       </c>
@@ -12667,20 +15252,36 @@
       <c r="E119">
         <v>5</v>
       </c>
-      <c r="G119">
-        <f t="shared" ref="G119:G120" si="26">0.0014*D119 - 24.894</f>
-        <v>27.7348</v>
-      </c>
-      <c r="H119">
-        <f t="shared" si="19"/>
-        <v>0.81972107244328429</v>
-      </c>
       <c r="I119">
-        <f t="shared" si="14"/>
-        <v>81.972107244328427</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I119:I120" si="38">0.0000000007*D119^2 + 0.0001*D119 - 0.1189</f>
+        <v>4.6295109247999999</v>
+      </c>
+      <c r="J119">
+        <f>(I119-E119)/I119</f>
+        <v>-8.0027692172690054E-2</v>
+      </c>
+      <c r="K119" s="6">
+        <f t="shared" si="18"/>
+        <v>-8.0027692172690053</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="27"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M119" s="8">
+        <f t="shared" si="28"/>
+        <v>4.3459950784000005</v>
+      </c>
+      <c r="N119">
+        <f>(M119-E119)/M119</f>
+        <v>-0.15048450580408262</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="29"/>
+        <v>-15.048450580408263</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>308</v>
       </c>
@@ -12693,17 +15294,33 @@
       <c r="E120">
         <v>25</v>
       </c>
-      <c r="G120">
-        <f t="shared" si="26"/>
-        <v>152.35579999999999</v>
-      </c>
-      <c r="H120">
-        <f t="shared" si="19"/>
-        <v>0.83591041496286977</v>
-      </c>
       <c r="I120">
-        <f t="shared" si="14"/>
-        <v>83.591041496286977</v>
+        <f t="shared" si="38"/>
+        <v>23.762332714299998</v>
+      </c>
+      <c r="J120">
+        <f>(I120-E120)/I120</f>
+        <v>-5.2085260339578665E-2</v>
+      </c>
+      <c r="K120" s="6">
+        <f t="shared" si="18"/>
+        <v>-5.2085260339578667</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="27"/>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M120" s="8">
+        <f t="shared" si="28"/>
+        <v>22.017199469400001</v>
+      </c>
+      <c r="N120">
+        <f>(M120-E120)/M120</f>
+        <v>-0.13547592802370537</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="29"/>
+        <v>-13.547592802370536</v>
       </c>
     </row>
   </sheetData>
@@ -19297,7 +21914,7 @@
   <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
